--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Notch3</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H2">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.987818</v>
+        <v>19.412944</v>
       </c>
       <c r="N2">
-        <v>8.963454</v>
+        <v>58.238832</v>
       </c>
       <c r="O2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q2">
-        <v>3.170983194672</v>
+        <v>49.02907252714667</v>
       </c>
       <c r="R2">
-        <v>28.538848752048</v>
+        <v>441.26165274432</v>
       </c>
       <c r="S2">
-        <v>0.0004278756798162428</v>
+        <v>0.008668003654617016</v>
       </c>
       <c r="T2">
-        <v>0.0004278756798162427</v>
+        <v>0.008668003654617012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H3">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.05825042696427194</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P3">
-        <v>0.05825042696427195</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q3">
-        <v>5.03198895664</v>
+        <v>11.97463141164445</v>
       </c>
       <c r="R3">
-        <v>45.28790060976</v>
+        <v>107.7716827048</v>
       </c>
       <c r="S3">
-        <v>0.0006789899420683857</v>
+        <v>0.002117032680586715</v>
       </c>
       <c r="T3">
-        <v>0.0006789899420683857</v>
+        <v>0.002117032680586714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H4">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1099783333333333</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N4">
-        <v>0.329935</v>
+        <v>0.245974</v>
       </c>
       <c r="O4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q4">
-        <v>0.11672044508</v>
+        <v>0.2070762182488889</v>
       </c>
       <c r="R4">
-        <v>1.05048400572</v>
+        <v>1.86368596424</v>
       </c>
       <c r="S4">
-        <v>1.574963874642209E-05</v>
+        <v>3.660965472214082E-05</v>
       </c>
       <c r="T4">
-        <v>1.574963874642209E-05</v>
+        <v>3.660965472214081E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H5">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.98704766666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N5">
-        <v>218.961143</v>
+        <v>112.478254</v>
       </c>
       <c r="O5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q5">
-        <v>77.46144563682401</v>
+        <v>94.69119286411556</v>
       </c>
       <c r="R5">
-        <v>697.153010731416</v>
+        <v>852.22073577704</v>
       </c>
       <c r="S5">
-        <v>0.01045223726416921</v>
+        <v>0.01674075326127662</v>
       </c>
       <c r="T5">
-        <v>0.01045223726416921</v>
+        <v>0.01674075326127661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H6">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,43 +806,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.357675</v>
+        <v>0.130837</v>
       </c>
       <c r="N6">
-        <v>1.073025</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O6">
-        <v>0.004394280953245005</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P6">
-        <v>0.004394280953245006</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q6">
-        <v>0.3796019081999999</v>
+        <v>0.3304401827066667</v>
       </c>
       <c r="R6">
-        <v>3.416417173799999</v>
+        <v>2.973961644360001</v>
       </c>
       <c r="S6">
-        <v>5.122147124700185E-05</v>
+        <v>5.841955728915339E-05</v>
       </c>
       <c r="T6">
-        <v>5.122147124700185E-05</v>
+        <v>5.841955728915338E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.061304</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H7">
-        <v>3.183912</v>
+        <v>246.508934</v>
       </c>
       <c r="I7">
-        <v>0.01165639425243777</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J7">
-        <v>0.01165639425243777</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2117236666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N7">
-        <v>0.635171</v>
+        <v>58.238832</v>
       </c>
       <c r="O7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q7">
-        <v>0.224703174328</v>
+        <v>1595.154710413899</v>
       </c>
       <c r="R7">
-        <v>2.022328568952</v>
+        <v>14356.39239372509</v>
       </c>
       <c r="S7">
-        <v>3.032025639051226E-05</v>
+        <v>0.2820124091046495</v>
       </c>
       <c r="T7">
-        <v>3.032025639051226E-05</v>
+        <v>0.2820124091046495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H8">
         <v>246.508934</v>
       </c>
       <c r="I8">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J8">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.987818</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N8">
-        <v>8.963454</v>
+        <v>14.22398</v>
       </c>
       <c r="O8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q8">
-        <v>245.5079433886707</v>
+        <v>389.5931274485911</v>
       </c>
       <c r="R8">
-        <v>2209.571490498036</v>
+        <v>3506.338147037321</v>
       </c>
       <c r="S8">
-        <v>0.03312754175241882</v>
+        <v>0.06887739209564425</v>
       </c>
       <c r="T8">
-        <v>0.03312754175241882</v>
+        <v>0.06887739209564424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,14 +959,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H9">
         <v>246.508934</v>
       </c>
       <c r="I9">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J9">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.741326666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N9">
-        <v>14.22398</v>
+        <v>0.245974</v>
       </c>
       <c r="O9">
-        <v>0.05825042696427194</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P9">
-        <v>0.05825042696427195</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q9">
-        <v>389.5931274485911</v>
+        <v>6.737198725746222</v>
       </c>
       <c r="R9">
-        <v>3506.33814703732</v>
+        <v>60.634788531716</v>
       </c>
       <c r="S9">
-        <v>0.05256963346223121</v>
+        <v>0.001191090513578759</v>
       </c>
       <c r="T9">
-        <v>0.05256963346223121</v>
+        <v>0.001191090513578759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H10">
         <v>246.508934</v>
       </c>
       <c r="I10">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J10">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1099783333333333</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N10">
-        <v>0.329935</v>
+        <v>112.478254</v>
       </c>
       <c r="O10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q10">
-        <v>9.036880571032221</v>
+        <v>3080.766054635693</v>
       </c>
       <c r="R10">
-        <v>81.33192513928999</v>
+        <v>27726.89449172124</v>
       </c>
       <c r="S10">
-        <v>0.001219388807939919</v>
+        <v>0.5446583025982507</v>
       </c>
       <c r="T10">
-        <v>0.001219388807939919</v>
+        <v>0.5446583025982505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1101,60 +1098,60 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H11">
         <v>246.508934</v>
       </c>
       <c r="I11">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J11">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>72.98704766666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N11">
-        <v>218.961143</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q11">
-        <v>5997.319772039062</v>
+        <v>10.75082979925267</v>
       </c>
       <c r="R11">
-        <v>53975.87794835155</v>
+        <v>96.75746819327402</v>
       </c>
       <c r="S11">
-        <v>0.8092465702272637</v>
+        <v>0.001900672951512405</v>
       </c>
       <c r="T11">
-        <v>0.8092465702272635</v>
+        <v>0.001900672951512405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1160,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.16964466666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H12">
-        <v>246.508934</v>
+        <v>20.065264</v>
       </c>
       <c r="I12">
-        <v>0.9024763628681201</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J12">
-        <v>0.9024763628681199</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357675</v>
+        <v>19.412944</v>
       </c>
       <c r="N12">
-        <v>1.073025</v>
+        <v>58.238832</v>
       </c>
       <c r="O12">
-        <v>0.004394280953245005</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P12">
-        <v>0.004394280953245006</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q12">
-        <v>29.39002765614999</v>
+        <v>129.8419487924053</v>
       </c>
       <c r="R12">
-        <v>264.51024890535</v>
+        <v>1168.577539131648</v>
       </c>
       <c r="S12">
-        <v>0.003965734692105208</v>
+        <v>0.02295516575460424</v>
       </c>
       <c r="T12">
-        <v>0.003965734692105208</v>
+        <v>0.02295516575460423</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.16964466666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H13">
-        <v>246.508934</v>
+        <v>20.065264</v>
       </c>
       <c r="I13">
-        <v>0.9024763628681201</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J13">
-        <v>0.9024763628681199</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2117236666666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N13">
-        <v>0.635171</v>
+        <v>14.22398</v>
       </c>
       <c r="O13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q13">
-        <v>17.39725845752378</v>
+        <v>31.71199042563556</v>
       </c>
       <c r="R13">
-        <v>156.575326117714</v>
+        <v>285.40791383072</v>
       </c>
       <c r="S13">
-        <v>0.002347493926161233</v>
+        <v>0.005606462344405802</v>
       </c>
       <c r="T13">
-        <v>0.002347493926161233</v>
+        <v>0.0056064623444058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H14">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I14">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J14">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.987818</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N14">
-        <v>8.963454</v>
+        <v>0.245974</v>
       </c>
       <c r="O14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q14">
-        <v>0.01601669635866667</v>
+        <v>0.5483925830151111</v>
       </c>
       <c r="R14">
-        <v>0.144150267228</v>
+        <v>4.935533247136</v>
       </c>
       <c r="S14">
-        <v>2.161208187539359E-06</v>
+        <v>9.695204638243815E-05</v>
       </c>
       <c r="T14">
-        <v>2.161208187539359E-06</v>
+        <v>9.695204638243814E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H15">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I15">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J15">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.741326666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N15">
-        <v>14.22398</v>
+        <v>112.478254</v>
       </c>
       <c r="O15">
-        <v>0.05825042696427194</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P15">
-        <v>0.05825042696427195</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q15">
-        <v>0.02541667181777778</v>
+        <v>250.7673178632284</v>
       </c>
       <c r="R15">
-        <v>0.22875004636</v>
+        <v>2256.905860769056</v>
       </c>
       <c r="S15">
-        <v>3.429591096846828E-06</v>
+        <v>0.04433394138739728</v>
       </c>
       <c r="T15">
-        <v>3.429591096846828E-06</v>
+        <v>0.04433394138739727</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H16">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I16">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J16">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,42 +1426,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1099783333333333</v>
+        <v>0.130837</v>
       </c>
       <c r="N16">
-        <v>0.329935</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q16">
-        <v>0.0005895571855555555</v>
+        <v>0.8750929819893334</v>
       </c>
       <c r="R16">
-        <v>0.005306014669999999</v>
+        <v>7.875836837904001</v>
       </c>
       <c r="S16">
-        <v>7.955172452001186E-08</v>
+        <v>0.0001547104355648043</v>
       </c>
       <c r="T16">
-        <v>7.955172452001184E-08</v>
+        <v>0.0001547104355648043</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.005360666666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H17">
-        <v>0.016082</v>
+        <v>0.162416</v>
       </c>
       <c r="I17">
-        <v>5.887666881738699E-05</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J17">
-        <v>5.887666881738698E-05</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,42 +1488,42 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.98704766666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N17">
-        <v>218.961143</v>
+        <v>58.238832</v>
       </c>
       <c r="O17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q17">
-        <v>0.3912592335251111</v>
+        <v>1.050990904234667</v>
       </c>
       <c r="R17">
-        <v>3.521333101726</v>
+        <v>9.458918138111999</v>
       </c>
       <c r="S17">
-        <v>5.279444899305294E-05</v>
+        <v>0.0001858079814549064</v>
       </c>
       <c r="T17">
-        <v>5.279444899305293E-05</v>
+        <v>0.0001858079814549064</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,60 +1532,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.005360666666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H18">
-        <v>0.016082</v>
+        <v>0.162416</v>
       </c>
       <c r="I18">
-        <v>5.887666881738699E-05</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J18">
-        <v>5.887666881738698E-05</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.357675</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N18">
-        <v>1.073025</v>
+        <v>14.22398</v>
       </c>
       <c r="O18">
-        <v>0.004394280953245005</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P18">
-        <v>0.004394280953245006</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q18">
-        <v>0.00191737645</v>
+        <v>0.2566891039644444</v>
       </c>
       <c r="R18">
-        <v>0.01725638805</v>
+        <v>2.31020193568</v>
       </c>
       <c r="S18">
-        <v>2.587206243747578E-07</v>
+        <v>4.538087254316777E-05</v>
       </c>
       <c r="T18">
-        <v>2.587206243747578E-07</v>
+        <v>4.538087254316776E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,46 +1594,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.005360666666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H19">
-        <v>0.016082</v>
+        <v>0.162416</v>
       </c>
       <c r="I19">
-        <v>5.887666881738699E-05</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J19">
-        <v>5.887666881738698E-05</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2117236666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N19">
-        <v>0.635171</v>
+        <v>0.245974</v>
       </c>
       <c r="O19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q19">
-        <v>0.001134980002444444</v>
+        <v>0.004438901464888889</v>
       </c>
       <c r="R19">
-        <v>0.010214820022</v>
+        <v>0.039950113184</v>
       </c>
       <c r="S19">
-        <v>1.531481910530876E-07</v>
+        <v>7.847673255258477E-07</v>
       </c>
       <c r="T19">
-        <v>1.531481910530876E-07</v>
+        <v>7.847673255258476E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H20">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I20">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J20">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.987818</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N20">
-        <v>8.963454</v>
+        <v>112.478254</v>
       </c>
       <c r="O20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q20">
-        <v>23.12568940933467</v>
+        <v>2.029807566851555</v>
       </c>
       <c r="R20">
-        <v>208.131204684012</v>
+        <v>18.268268101664</v>
       </c>
       <c r="S20">
-        <v>0.003120458062932707</v>
+        <v>0.0003588560521494019</v>
       </c>
       <c r="T20">
-        <v>0.003120458062932706</v>
+        <v>0.0003588560521494018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,681 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H21">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I21">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J21">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>4.741326666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N21">
-        <v>14.22398</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O21">
-        <v>0.05825042696427194</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P21">
-        <v>0.05825042696427195</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q21">
-        <v>36.69783363027111</v>
+        <v>0.007083340730666667</v>
       </c>
       <c r="R21">
-        <v>330.28050267244</v>
+        <v>0.06375006657600001</v>
       </c>
       <c r="S21">
-        <v>0.004951811330542172</v>
+        <v>1.252286045311602E-06</v>
       </c>
       <c r="T21">
-        <v>0.004951811330542172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>7.739992666666666</v>
-      </c>
-      <c r="H22">
-        <v>23.219978</v>
-      </c>
-      <c r="I22">
-        <v>0.08500901347177042</v>
-      </c>
-      <c r="J22">
-        <v>0.08500901347177041</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1099783333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.329935</v>
-      </c>
-      <c r="O22">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="P22">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="Q22">
-        <v>0.8512314934922222</v>
-      </c>
-      <c r="R22">
-        <v>7.661083441429999</v>
-      </c>
-      <c r="S22">
-        <v>0.0001148606698928452</v>
-      </c>
-      <c r="T22">
-        <v>0.0001148606698928451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>7.739992666666666</v>
-      </c>
-      <c r="H23">
-        <v>23.219978</v>
-      </c>
-      <c r="I23">
-        <v>0.08500901347177042</v>
-      </c>
-      <c r="J23">
-        <v>0.08500901347177041</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>72.98704766666667</v>
-      </c>
-      <c r="N23">
-        <v>218.961143</v>
-      </c>
-      <c r="O23">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="P23">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="Q23">
-        <v>564.9192137016504</v>
-      </c>
-      <c r="R23">
-        <v>5084.272923314853</v>
-      </c>
-      <c r="S23">
-        <v>0.07622720707255388</v>
-      </c>
-      <c r="T23">
-        <v>0.07622720707255387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>7.739992666666666</v>
-      </c>
-      <c r="H24">
-        <v>23.219978</v>
-      </c>
-      <c r="I24">
-        <v>0.08500901347177042</v>
-      </c>
-      <c r="J24">
-        <v>0.08500901347177041</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.357675</v>
-      </c>
-      <c r="N24">
-        <v>1.073025</v>
-      </c>
-      <c r="O24">
-        <v>0.004394280953245005</v>
-      </c>
-      <c r="P24">
-        <v>0.004394280953245006</v>
-      </c>
-      <c r="Q24">
-        <v>2.76840187705</v>
-      </c>
-      <c r="R24">
-        <v>24.91561689345</v>
-      </c>
-      <c r="S24">
-        <v>0.0003735534887531488</v>
-      </c>
-      <c r="T24">
-        <v>0.0003735534887531488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>7.739992666666666</v>
-      </c>
-      <c r="H25">
-        <v>23.219978</v>
-      </c>
-      <c r="I25">
-        <v>0.08500901347177042</v>
-      </c>
-      <c r="J25">
-        <v>0.08500901347177041</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.2117236666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.635171</v>
-      </c>
-      <c r="O25">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="P25">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="Q25">
-        <v>1.638739627359778</v>
-      </c>
-      <c r="R25">
-        <v>14.748656646238</v>
-      </c>
-      <c r="S25">
-        <v>0.0002211228470956654</v>
-      </c>
-      <c r="T25">
-        <v>0.0002211228470956653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H26">
-        <v>0.218341</v>
-      </c>
-      <c r="I26">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J26">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.987818</v>
-      </c>
-      <c r="N26">
-        <v>8.963454</v>
-      </c>
-      <c r="O26">
-        <v>0.03670737884717296</v>
-      </c>
-      <c r="P26">
-        <v>0.03670737884717296</v>
-      </c>
-      <c r="Q26">
-        <v>0.2174543899793333</v>
-      </c>
-      <c r="R26">
-        <v>1.957089509814</v>
-      </c>
-      <c r="S26">
-        <v>2.934214381765522E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.934214381765521E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H27">
-        <v>0.218341</v>
-      </c>
-      <c r="I27">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J27">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>4.741326666666667</v>
-      </c>
-      <c r="N27">
-        <v>14.22398</v>
-      </c>
-      <c r="O27">
-        <v>0.05825042696427194</v>
-      </c>
-      <c r="P27">
-        <v>0.05825042696427195</v>
-      </c>
-      <c r="Q27">
-        <v>0.3450753352422222</v>
-      </c>
-      <c r="R27">
-        <v>3.10567801718</v>
-      </c>
-      <c r="S27">
-        <v>4.656263833333125E-05</v>
-      </c>
-      <c r="T27">
-        <v>4.656263833333125E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H28">
-        <v>0.218341</v>
-      </c>
-      <c r="I28">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J28">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.1099783333333333</v>
-      </c>
-      <c r="N28">
-        <v>0.329935</v>
-      </c>
-      <c r="O28">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="P28">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="Q28">
-        <v>0.008004259759444443</v>
-      </c>
-      <c r="R28">
-        <v>0.07203833783499999</v>
-      </c>
-      <c r="S28">
-        <v>1.080052424040785E-06</v>
-      </c>
-      <c r="T28">
-        <v>1.080052424040785E-06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H29">
-        <v>0.218341</v>
-      </c>
-      <c r="I29">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J29">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>72.98704766666667</v>
-      </c>
-      <c r="N29">
-        <v>218.961143</v>
-      </c>
-      <c r="O29">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="P29">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="Q29">
-        <v>5.312021658195889</v>
-      </c>
-      <c r="R29">
-        <v>47.808194923763</v>
-      </c>
-      <c r="S29">
-        <v>0.0007167760718562474</v>
-      </c>
-      <c r="T29">
-        <v>0.0007167760718562473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H30">
-        <v>0.218341</v>
-      </c>
-      <c r="I30">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J30">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.357675</v>
-      </c>
-      <c r="N30">
-        <v>1.073025</v>
-      </c>
-      <c r="O30">
-        <v>0.004394280953245005</v>
-      </c>
-      <c r="P30">
-        <v>0.004394280953245006</v>
-      </c>
-      <c r="Q30">
-        <v>0.02603170572499999</v>
-      </c>
-      <c r="R30">
-        <v>0.234285351525</v>
-      </c>
-      <c r="S30">
-        <v>3.512580515272291E-06</v>
-      </c>
-      <c r="T30">
-        <v>3.512580515272291E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H31">
-        <v>0.218341</v>
-      </c>
-      <c r="I31">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J31">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.2117236666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.635171</v>
-      </c>
-      <c r="O31">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="P31">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="Q31">
-        <v>0.01540931903455555</v>
-      </c>
-      <c r="R31">
-        <v>0.138683871311</v>
-      </c>
-      <c r="S31">
-        <v>2.07925190789219E-06</v>
-      </c>
-      <c r="T31">
-        <v>2.079251907892189E-06</v>
+        <v>1.252286045311602E-06</v>
       </c>
     </row>
   </sheetData>
